--- a/metadonnees_modele.xlsx
+++ b/metadonnees_modele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\tbb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\tbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF834C-8EA2-44B6-89FD-273B896C99AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D48D0-1571-4173-8853-24EEE686F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
   </bookViews>
   <sheets>
     <sheet name="metadonnees" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>nom</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Budget en gestion Ceped hors frais de gestion (total feuille Répartition)</t>
+  </si>
+  <si>
+    <t>cfi</t>
+  </si>
+  <si>
+    <t>Centre financier (CFI)</t>
   </si>
 </sst>
 </file>
@@ -446,8 +452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}" name="Tableau1" displayName="Tableau1" ref="A3:C14" totalsRowShown="0">
-  <autoFilter ref="A3:C14" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}" name="Tableau1" displayName="Tableau1" ref="A3:C15" totalsRowShown="0">
+  <autoFilter ref="A3:C15" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B5E7C175-8ACB-428F-80E1-57083EEE6512}" name="id"/>
     <tableColumn id="2" xr3:uid="{3EC7D562-D1FA-460F-8DA3-E84FFB6ED136}" name="description"/>
@@ -834,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6367D094-2697-4D3B-BC6C-43C08CE97181}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -924,51 +930,60 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <f>SUM(repartition_budgetaire[montant])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadonnees_modele.xlsx
+++ b/metadonnees_modele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\tbb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Nextcloud\Suivi Projets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D48D0-1571-4173-8853-24EEE686F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABC66B-D019-43A2-83F3-D72D9CE3DAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
   </bookViews>
   <sheets>
     <sheet name="metadonnees" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>nom</t>
   </si>
@@ -464,15 +464,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E107EB03-E571-40FA-994F-33024A3F4550}" name="repartition_budgetaire" displayName="repartition_budgetaire" ref="A3:C8" totalsRowShown="0">
-  <autoFilter ref="A3:C8" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E107EB03-E571-40FA-994F-33024A3F4550}" name="repartition_budgetaire" displayName="repartition_budgetaire" ref="A3:D8" totalsRowShown="0">
+  <autoFilter ref="A3:D8" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C7">
     <sortCondition ref="A3:A7"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{34381D40-7788-4DC0-B68C-DD08F0574A74}" name="annee"/>
     <tableColumn id="2" xr3:uid="{50EF0E03-F9EE-4745-80CC-1795893A2A95}" name="type"/>
     <tableColumn id="3" xr3:uid="{E8519294-2B32-4D12-AD6F-B6523D454A15}" name="montant" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{863B0C4A-60B4-4257-A07C-801C35629FD1}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -842,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6367D094-2697-4D3B-BC6C-43C08CE97181}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F493A-BCA3-42C2-A4C4-2B542362097B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,17 +1008,18 @@
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="59.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1027,8 +1029,11 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
   </sheetData>

--- a/metadonnees_modele.xlsx
+++ b/metadonnees_modele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Nextcloud\Suivi Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\tbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABC66B-D019-43A2-83F3-D72D9CE3DAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF834C-8EA2-44B6-89FD-273B896C99AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C9F1A1FC-863E-4FAB-BAC3-C1ACF6890F19}"/>
   </bookViews>
   <sheets>
     <sheet name="metadonnees" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>nom</t>
   </si>
@@ -230,12 +230,6 @@
   </si>
   <si>
     <t>Budget en gestion Ceped hors frais de gestion (total feuille Répartition)</t>
-  </si>
-  <si>
-    <t>cfi</t>
-  </si>
-  <si>
-    <t>Centre financier (CFI)</t>
   </si>
 </sst>
 </file>
@@ -452,8 +446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}" name="Tableau1" displayName="Tableau1" ref="A3:C15" totalsRowShown="0">
-  <autoFilter ref="A3:C15" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}" name="Tableau1" displayName="Tableau1" ref="A3:C14" totalsRowShown="0">
+  <autoFilter ref="A3:C14" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B5E7C175-8ACB-428F-80E1-57083EEE6512}" name="id"/>
     <tableColumn id="2" xr3:uid="{3EC7D562-D1FA-460F-8DA3-E84FFB6ED136}" name="description"/>
@@ -464,16 +458,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E107EB03-E571-40FA-994F-33024A3F4550}" name="repartition_budgetaire" displayName="repartition_budgetaire" ref="A3:D8" totalsRowShown="0">
-  <autoFilter ref="A3:D8" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E107EB03-E571-40FA-994F-33024A3F4550}" name="repartition_budgetaire" displayName="repartition_budgetaire" ref="A3:C8" totalsRowShown="0">
+  <autoFilter ref="A3:C8" xr:uid="{A9CBC2DA-E2EB-47DB-89D9-6ADE6387CC2D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C7">
     <sortCondition ref="A3:A7"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{34381D40-7788-4DC0-B68C-DD08F0574A74}" name="annee"/>
     <tableColumn id="2" xr3:uid="{50EF0E03-F9EE-4745-80CC-1795893A2A95}" name="type"/>
     <tableColumn id="3" xr3:uid="{E8519294-2B32-4D12-AD6F-B6523D454A15}" name="montant" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{863B0C4A-60B4-4257-A07C-801C35629FD1}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6367D094-2697-4D3B-BC6C-43C08CE97181}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,60 +924,51 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUM(repartition_budgetaire[montant])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7">
-        <f>SUM(repartition_budgetaire[montant])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F493A-BCA3-42C2-A4C4-2B542362097B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,18 +992,17 @@
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="59.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1029,11 +1012,8 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
   </sheetData>
